--- a/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik oktober 2024.xlsx
+++ b/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik oktober 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -475,7 +475,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
+  </si>
+  <si>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
@@ -545,7 +548,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,7 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -625,6 +628,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5F94AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
@@ -661,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -756,37 +764,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2574,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE72E6C-3880-47CA-AC7C-4BF6DAB6A3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5995C2-9A0E-4FC1-AE1B-74D9552AD0D5}">
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -2947,6 +2959,9 @@
       <c r="G16" s="33">
         <v>22</v>
       </c>
+      <c r="H16" s="51" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
@@ -3261,7 +3276,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -3870,7 +3885,7 @@
       <c r="B56" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="50" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="31">
@@ -4041,11 +4056,11 @@
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="52">
         <f>+F31+F62</f>
         <v>998</v>
       </c>
-      <c r="G64" s="51">
+      <c r="G64" s="53">
         <f>+G31+G62</f>
         <v>44847.72</v>
       </c>
@@ -4054,11 +4069,11 @@
       <c r="A65" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="54">
         <f>+F62/F64</f>
         <v>0.6893787575150301</v>
       </c>
-      <c r="G65" s="52">
+      <c r="G65" s="54">
         <f>+G62/G64</f>
         <v>0.6411576775809339</v>
       </c>
@@ -4070,7 +4085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6310CCB-8421-499D-B55F-276FEC67500E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FA78E6-00B1-4379-80CB-33B53D384A4A}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -4140,20 +4155,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="62" t="s">
         <v>154</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -4163,19 +4178,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="63">
         <v>6</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="65">
         <f>+D7*E7</f>
         <v>30</v>
       </c>
@@ -4187,19 +4202,19 @@
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="63">
         <v>8</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="65">
         <f ref="F8:F30" t="shared" si="0">+D8*E8</f>
         <v>8</v>
       </c>
@@ -4211,19 +4226,19 @@
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="63">
         <v>11</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="65">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -4235,19 +4250,19 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="61">
-        <v>1</v>
-      </c>
-      <c r="F10" s="63">
+      <c r="E10" s="63">
+        <v>1</v>
+      </c>
+      <c r="F10" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4259,19 +4274,19 @@
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="60" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="63">
         <v>2</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4283,19 +4298,19 @@
       <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="60" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="63">
         <v>3</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4307,19 +4322,19 @@
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="61">
-        <v>1</v>
-      </c>
-      <c r="F13" s="63">
+      <c r="E13" s="63">
+        <v>1</v>
+      </c>
+      <c r="F13" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4331,19 +4346,19 @@
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="61">
-        <v>1</v>
-      </c>
-      <c r="F14" s="63">
+      <c r="E14" s="63">
+        <v>1</v>
+      </c>
+      <c r="F14" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4355,19 +4370,19 @@
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="63">
         <v>3</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4379,19 +4394,19 @@
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="61">
-        <v>1</v>
-      </c>
-      <c r="F16" s="63">
+      <c r="E16" s="63">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4403,19 +4418,19 @@
       <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="60" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="61">
-        <v>1</v>
-      </c>
-      <c r="F17" s="63">
+      <c r="E17" s="63">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4427,19 +4442,19 @@
       <c r="A18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="63">
         <v>7</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4451,19 +4466,19 @@
       <c r="A19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="60" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="63">
         <v>3</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4475,19 +4490,19 @@
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="60" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="63">
         <v>4</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="65">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4499,19 +4514,19 @@
       <c r="A21" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="60" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="63">
         <v>3</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4523,19 +4538,19 @@
       <c r="A22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="60" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="63">
         <v>19</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="65">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -4547,19 +4562,19 @@
       <c r="A23" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="60" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="61">
-        <v>1</v>
-      </c>
-      <c r="F23" s="63">
+      <c r="E23" s="63">
+        <v>1</v>
+      </c>
+      <c r="F23" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4571,19 +4586,19 @@
       <c r="A24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="60" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="61">
-        <v>5</v>
-      </c>
-      <c r="F24" s="63">
+      <c r="E24" s="63">
+        <v>5</v>
+      </c>
+      <c r="F24" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4595,19 +4610,19 @@
       <c r="A25" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="61">
-        <v>1</v>
-      </c>
-      <c r="F25" s="63">
+      <c r="E25" s="63">
+        <v>1</v>
+      </c>
+      <c r="F25" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4619,19 +4634,19 @@
       <c r="A26" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="60" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="61">
-        <v>1</v>
-      </c>
-      <c r="F26" s="63">
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4643,19 +4658,19 @@
       <c r="A27" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="60" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="63">
         <v>6</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="65">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4667,19 +4682,19 @@
       <c r="A28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="60" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="63">
         <v>22</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="65">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -4691,19 +4706,19 @@
       <c r="A29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="63">
         <v>57</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="65">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -4715,19 +4730,19 @@
       <c r="A30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="63">
         <v>7</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4739,15 +4754,15 @@
       <c r="A31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="58">
         <v>3070</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="64">
+      <c r="E31" s="64"/>
+      <c r="F31" s="66">
         <f>SUM(F7:F30)</f>
         <v>310</v>
       </c>
@@ -4767,20 +4782,20 @@
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="C33" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="60" t="s">
+      <c r="E33" s="62" t="s">
         <v>154</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>155</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>10</v>
@@ -4790,19 +4805,19 @@
       <c r="A34" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="60" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="63">
         <v>15</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="65">
         <f ref="F34:F61" t="shared" si="1">+D34*E34</f>
         <v>15</v>
       </c>
@@ -4814,19 +4829,19 @@
       <c r="A35" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="60" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="63">
         <v>4</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="65">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -4838,19 +4853,19 @@
       <c r="A36" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="60" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="61">
-        <v>1</v>
-      </c>
-      <c r="F36" s="63">
+      <c r="E36" s="63">
+        <v>1</v>
+      </c>
+      <c r="F36" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4862,19 +4877,19 @@
       <c r="A37" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="63">
         <v>7</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -4886,19 +4901,19 @@
       <c r="A38" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="60" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="63">
         <v>3</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="65">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4910,19 +4925,19 @@
       <c r="A39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="60" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="63">
         <v>9</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="65">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -4934,19 +4949,19 @@
       <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="63">
         <v>32</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="65">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
@@ -4958,19 +4973,19 @@
       <c r="A41" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="60" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="63">
         <v>9</v>
       </c>
-      <c r="F41" s="63">
+      <c r="F41" s="65">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -4982,19 +4997,19 @@
       <c r="A42" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="61">
-        <v>1</v>
-      </c>
-      <c r="F42" s="63">
+      <c r="E42" s="63">
+        <v>1</v>
+      </c>
+      <c r="F42" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5006,19 +5021,19 @@
       <c r="A43" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="63">
         <v>4</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5030,19 +5045,19 @@
       <c r="A44" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="60" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="63">
         <v>9</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="65">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -5054,19 +5069,19 @@
       <c r="A45" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="60" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="63">
         <v>2</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="65">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5078,19 +5093,19 @@
       <c r="A46" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="60" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="63">
         <v>14</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="65">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5102,19 +5117,19 @@
       <c r="A47" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="60" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
       </c>
-      <c r="E47" s="61">
-        <v>1</v>
-      </c>
-      <c r="F47" s="63">
+      <c r="E47" s="63">
+        <v>1</v>
+      </c>
+      <c r="F47" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5126,19 +5141,19 @@
       <c r="A48" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="60" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="63">
         <v>28</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="65">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -5150,19 +5165,19 @@
       <c r="A49" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="60" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="63">
         <v>4</v>
       </c>
-      <c r="F49" s="63">
+      <c r="F49" s="65">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5174,19 +5189,19 @@
       <c r="A50" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="63">
         <v>2</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5198,19 +5213,19 @@
       <c r="A51" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="60" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="63">
         <v>6</v>
       </c>
-      <c r="F51" s="63">
+      <c r="F51" s="65">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5222,19 +5237,19 @@
       <c r="A52" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="60" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="63">
         <v>18</v>
       </c>
-      <c r="F52" s="63">
+      <c r="F52" s="65">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -5246,19 +5261,19 @@
       <c r="A53" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="60" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="63">
         <v>2</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="65">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5270,19 +5285,19 @@
       <c r="A54" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="60" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="63">
         <v>14</v>
       </c>
-      <c r="F54" s="63">
+      <c r="F54" s="65">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5294,19 +5309,19 @@
       <c r="A55" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="63">
         <v>34</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="65">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
@@ -5318,19 +5333,19 @@
       <c r="A56" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="60" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="61">
-        <v>1</v>
-      </c>
-      <c r="F56" s="63">
+      <c r="E56" s="63">
+        <v>1</v>
+      </c>
+      <c r="F56" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5342,19 +5357,19 @@
       <c r="A57" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="60" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="63">
         <v>2</v>
       </c>
-      <c r="F57" s="63">
+      <c r="F57" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5366,19 +5381,19 @@
       <c r="A58" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="60" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="E58" s="61">
+      <c r="E58" s="63">
         <v>7</v>
       </c>
-      <c r="F58" s="63">
+      <c r="F58" s="65">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -5390,19 +5405,19 @@
       <c r="A59" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="60" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="1">
         <v>5</v>
       </c>
-      <c r="E59" s="61">
+      <c r="E59" s="63">
         <v>2</v>
       </c>
-      <c r="F59" s="63">
+      <c r="F59" s="65">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5414,19 +5429,19 @@
       <c r="A60" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="60" t="s">
         <v>130</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="61">
-        <v>5</v>
-      </c>
-      <c r="F60" s="63">
+      <c r="E60" s="63">
+        <v>5</v>
+      </c>
+      <c r="F60" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5438,19 +5453,19 @@
       <c r="A61" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="60" t="s">
         <v>133</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="63">
         <v>22</v>
       </c>
-      <c r="F61" s="63">
+      <c r="F61" s="65">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -5462,15 +5477,15 @@
       <c r="A62" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="58">
         <v>3070</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="61" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="64">
+      <c r="E62" s="64"/>
+      <c r="F62" s="66">
         <f>SUM(F34:F61)</f>
         <v>688</v>
       </c>
